--- a/Data/Transactions.xlsx
+++ b/Data/Transactions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -54,6 +54,9 @@
    at System.Activities.ActivityInstance.InternalTryPopulateArgumentValueOrScheduleExpression(RuntimeArgument argument, Int32 nextArgumentIndex, ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Boolean isDynamicUpdate)_x000D_
    at System.Activities.ActivityInstance.ResolveArguments(ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Int32 startIndex)_x000D_
    at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</t>
+  </si>
+  <si>
+    <t>Attendance Processed for Abhishek</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +397,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43297.579375000001</v>
+        <v>43298.498043981483</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -422,6 +425,86 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43298.469664351855</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43298.46980324074</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43298.469814814816</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43298.477280092593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43298.477465277778</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43298.479513888888</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43298.481631944444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43298.481840277775</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43298.49832175926</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43298.498379629629</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Transactions.xlsx
+++ b/Data/Transactions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Timestamp</t>
   </si>
@@ -38,25 +38,14 @@
     <t>System initialized and setup.</t>
   </si>
   <si>
-    <t>Attendance Processed for BatchA</t>
-  </si>
-  <si>
-    <t>Attendance Processed for BatchB</t>
-  </si>
-  <si>
-    <t>System.IndexOutOfRangeException: Index was outside the bounds of the array._x000D_
-   at lambda_method(Closure , ActivityContext )_x000D_
-   at Microsoft.VisualBasic.Activities.VisualBasicValue`1.Execute(CodeActivityContext context)_x000D_
-   at System.Activities.CodeActivity`1.InternalExecuteInResolutionContext(CodeActivityContext context)_x000D_
-   at System.Activities.Runtime.ActivityExecutor.ExecuteInResolutionContext[T](ActivityInstance parentInstance, Activity`1 expressionActivity)_x000D_
-   at System.Activities.InArgument`1.TryPopulateValue(LocationEnvironment targetEnvironment, ActivityInstance activityInstance, ActivityExecutor executor)_x000D_
-   at System.Activities.RuntimeArgument.TryPopulateValue(LocationEnvironment targetEnvironment, ActivityInstance targetActivityInstance, ActivityExecutor executor, Object argumentValueOverride, Location resultLocation, Boolean skipFastPath)_x000D_
-   at System.Activities.ActivityInstance.InternalTryPopulateArgumentValueOrScheduleExpression(RuntimeArgument argument, Int32 nextArgumentIndex, ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Boolean isDynamicUpdate)_x000D_
-   at System.Activities.ActivityInstance.ResolveArguments(ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Int32 startIndex)_x000D_
-   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</t>
-  </si>
-  <si>
-    <t>Attendance Processed for Abhishek</t>
+    <t>Samyak--DESKTOP-MJBLSGM--Microsoft Windows NT 6.2.9200.0</t>
+  </si>
+  <si>
+    <t>System.IO.FileNotFoundException: Could not find file 'C:\Users\Samyak\Documents\UiPath\UiPath-Attendance-Framework-UAF\SendEmail.xaml'._x000D_
+File name: 'C:\Users\Samyak\Documents\UiPath\UiPath-Attendance-Framework-UAF\SendEmail.xaml'_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
   </si>
 </sst>
 </file>
@@ -378,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,113 +386,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43298.498043981483</v>
+        <v>43298.517384259256</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43297.579814814817</v>
-      </c>
-      <c r="C3" t="s">
+        <v>43298.517557870371</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43297.580011574071</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43297.580034722225</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43298.469664351855</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43298.46980324074</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43298.469814814816</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43298.477280092593</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43298.477465277778</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43298.479513888888</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43298.481631944444</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43298.481840277775</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43298.49832175926</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43298.498379629629</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
